--- a/Problems list.xlsx
+++ b/Problems list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bioinformatics Stronghold" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="561">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1720,6 +1720,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1741,17 +1742,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1848,8 +1852,8 @@
   </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1920,14 +1924,16 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -1939,14 +1945,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -4490,7 +4498,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4760,7 +4768,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4775,7 +4783,7 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -7286,7 +7294,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
